--- a/LOGS/9dc3e434-32dc-4aee-9ff6-bf06b0d787bb/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/9dc3e434-32dc-4aee-9ff6-bf06b0d787bb/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="117">
   <si>
     <t>rows</t>
   </si>
@@ -60,6 +60,30 @@
     <t>Note</t>
   </si>
   <si>
+    <t>CASH AND CASH EQUIVALENTS Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>CASH AND CASH EQUIVALENTS Total</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>TRADE AND OTHER RECEIVABLES Trade</t>
+  </si>
+  <si>
+    <t>TRADE AND OTHER RECEIVABLES Amounts from related entities (note 32)</t>
+  </si>
+  <si>
+    <t>TRADE AND OTHER RECEIVABLES Other amounts</t>
+  </si>
+  <si>
+    <t>TRADE AND OTHER RECEIVABLES Total</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>None Carrying amount at 31 March 2021</t>
   </si>
   <si>
@@ -87,9 +111,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>PROPERTY, PLANT AND Plant and equipment, at cost nan nan nan nan</t>
   </si>
   <si>
@@ -171,6 +192,36 @@
     <t>$000</t>
   </si>
   <si>
+    <t>Current assets Cash flow hedges</t>
+  </si>
+  <si>
+    <t>Current liabilities Cash flow hedges</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>16 LOAN RECEIVABLE Amounts receivable from related entities</t>
+  </si>
+  <si>
+    <t>16 LOAN RECEIVABLE Total</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>14 OTHER ASSETS Prepayments</t>
+  </si>
+  <si>
+    <t>14 OTHER ASSETS Other current assets</t>
+  </si>
+  <si>
+    <t>14 OTHER ASSETS Total</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>None Carrying amount at beginning of year</t>
   </si>
   <si>
@@ -183,6 +234,27 @@
     <t>20</t>
   </si>
   <si>
+    <t>Current Trade creditors and accrued expenses</t>
+  </si>
+  <si>
+    <t>Current payable to joint managers</t>
+  </si>
+  <si>
+    <t>Current Amounts payable to related entities</t>
+  </si>
+  <si>
+    <t>Current Total</t>
+  </si>
+  <si>
+    <t>Non-current Trade and accrued expenses</t>
+  </si>
+  <si>
+    <t>Non-current Total</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>Current Employee benefits</t>
   </si>
   <si>
@@ -195,18 +267,12 @@
     <t>Current Other provisions</t>
   </si>
   <si>
-    <t>Current Total</t>
-  </si>
-  <si>
     <t>Non-Current Rehabilitation (a) (b)</t>
   </si>
   <si>
     <t>Non-Current Total</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>None At1April 2021</t>
   </si>
   <si>
@@ -307,6 +373,27 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>OTHER EXPENSES Net foreign exchange loss</t>
+  </si>
+  <si>
+    <t>OTHER EXPENSES Net (loss) gain from disposal of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>OTHER EXPENSES Impairment losses and other write downs of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>OTHER EXPENSES Exploration and evaluation expenditure incurred and expensed in the current period</t>
+  </si>
+  <si>
+    <t>OTHER EXPENSES (expenses) /income</t>
+  </si>
+  <si>
+    <t>OTHER EXPENSES Total</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -664,12 +751,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>483051</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>483051</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>468763</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>468763</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -713,7 +874,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -722,12 +883,12 @@
         <v>2549</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -736,12 +897,12 @@
         <v>8283</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -750,12 +911,12 @@
         <v>-9277</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -764,12 +925,12 @@
         <v>1555</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -778,12 +939,12 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -792,12 +953,12 @@
         <v>9126</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -806,12 +967,12 @@
         <v>-6577</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -820,7 +981,7 @@
         <v>2549</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -830,12 +991,198 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>268105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>542327</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>18370</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>828802</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>51473</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>51473</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>364735</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>446932</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>8333</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>820000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>49617</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>49617</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -891,10 +1238,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -903,15 +1250,15 @@
         <v>818</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -920,15 +1267,15 @@
         <v>48935</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -937,15 +1284,15 @@
         <v>7700</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -954,15 +1301,15 @@
         <v>10760</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -971,15 +1318,15 @@
         <v>68213</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -988,15 +1335,15 @@
         <v>1860599</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1005,15 +1352,15 @@
         <v>1860599</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1022,15 +1369,15 @@
         <v>696</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1039,15 +1386,15 @@
         <v>62566</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1056,15 +1403,15 @@
         <v>7700</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1073,15 +1420,15 @@
         <v>5738</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -1090,15 +1437,15 @@
         <v>76700</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1107,15 +1454,15 @@
         <v>1775083</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -1124,7 +1471,7 @@
         <v>1775083</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1159,10 +1506,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1171,15 +1518,15 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1188,15 +1535,15 @@
         <v>248238</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1205,15 +1552,15 @@
         <v>547598</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1222,15 +1569,15 @@
         <v>28409</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1239,15 +1586,15 @@
         <v>576007</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1256,15 +1603,15 @@
         <v>6503</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1273,15 +1620,15 @@
         <v>-6487</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1290,15 +1637,15 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1307,15 +1654,15 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1324,15 +1671,15 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1341,15 +1688,15 @@
         <v>56068</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1358,15 +1705,15 @@
         <v>-13992</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1375,15 +1722,15 @@
         <v>42076</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1392,15 +1739,15 @@
         <v>-17125</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -1409,15 +1756,15 @@
         <v>24951</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1426,15 +1773,15 @@
         <v>2094</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -1443,15 +1790,15 @@
         <v>2009</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -1460,15 +1807,15 @@
         <v>4103</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -1477,15 +1824,15 @@
         <v>1114</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -1494,15 +1841,15 @@
         <v>5217</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -1511,15 +1858,15 @@
         <v>34550</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -1528,15 +1875,15 @@
         <v>-27857</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -1545,15 +1892,15 @@
         <v>6693</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -1562,15 +1909,15 @@
         <v>48026</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -1579,15 +1926,15 @@
         <v>54719</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -1596,15 +1943,15 @@
         <v>398575</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -1613,15 +1960,15 @@
         <v>201911</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -1630,15 +1977,15 @@
         <v>600486</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -1647,15 +1994,15 @@
         <v>60477</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -1664,7 +2011,7 @@
         <v>660963</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1711,10 +2058,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1723,15 +2070,15 @@
         <v>-1428373</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1740,15 +2087,15 @@
         <v>-97757</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1757,15 +2104,15 @@
         <v>-8986</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1774,15 +2121,15 @@
         <v>-5369</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1791,15 +2138,15 @@
         <v>-1540485</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1808,15 +2155,15 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1825,15 +2172,15 @@
         <v>-52365</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1842,15 +2189,15 @@
         <v>50804</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1859,15 +2206,15 @@
         <v>-1204</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1876,15 +2223,15 @@
         <v>-2765</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1893,15 +2240,15 @@
         <v>1212</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1910,15 +2257,15 @@
         <v>-3817</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -1927,15 +2274,15 @@
         <v>-5370</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -1944,15 +2291,15 @@
         <v>-1397972</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -1961,15 +2308,15 @@
         <v>-84625</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -1978,15 +2325,15 @@
         <v>-6667</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -1995,15 +2342,15 @@
         <v>-2764</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -2012,15 +2359,15 @@
         <v>-1492028</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -2029,15 +2376,15 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -2046,15 +2393,15 @@
         <v>-1300790</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -2063,15 +2410,15 @@
         <v>-190034</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -2080,15 +2427,15 @@
         <v>-1204</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -2097,15 +2444,15 @@
         <v>-1492028</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -2114,15 +2461,15 @@
         <v>-44640</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -2131,15 +2478,15 @@
         <v>-3817</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -2148,7 +2495,7 @@
         <v>-1540485</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2231,7 +2578,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2240,12 +2587,12 @@
         <v>13300269</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2254,12 +2601,12 @@
         <v>61727</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2268,12 +2615,12 @@
         <v>27598</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2282,12 +2629,12 @@
         <v>13389594</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2296,12 +2643,12 @@
         <v>10353407</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2310,12 +2657,12 @@
         <v>55900</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2324,12 +2671,12 @@
         <v>48909</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2338,7 +2685,7 @@
         <v>10458216</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2421,7 +2768,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2430,12 +2777,12 @@
         <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2444,12 +2791,12 @@
         <v>64957</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2458,12 +2805,12 @@
         <v>14699</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2472,12 +2819,12 @@
         <v>79752</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2486,12 +2833,12 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2500,12 +2847,12 @@
         <v>4890</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2514,12 +2861,12 @@
         <v>992</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2528,7 +2875,7 @@
         <v>5930</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2550,24 +2897,340 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>-264231</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>-13772</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>-1913</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>-10535</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>-8129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>-298580</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>-132483</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>1118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>-17828</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>-9702</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>1371</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>-157524</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>1167319</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>8815</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>55783</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>1231917</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>2129708</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>49145</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>33951</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>2212804</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2611,10 +3274,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2623,15 +3286,15 @@
         <v>7621</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2640,15 +3303,15 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2657,15 +3320,15 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2674,15 +3337,15 @@
         <v>-1475</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2691,15 +3354,15 @@
         <v>6146</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2708,15 +3371,15 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -2725,15 +3388,15 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -2742,15 +3405,15 @@
         <v>-1475</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -2759,15 +3422,15 @@
         <v>4671</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -2776,15 +3439,15 @@
         <v>109924</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -2793,15 +3456,15 @@
         <v>212331</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -2810,15 +3473,15 @@
         <v>-2613</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -2827,15 +3490,15 @@
         <v>-87787</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2844,15 +3507,15 @@
         <v>231855</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -2861,15 +3524,15 @@
         <v>195193</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -2878,15 +3541,15 @@
         <v>-114827</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -2895,15 +3558,15 @@
         <v>-81186</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -2912,15 +3575,15 @@
         <v>231035</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -2929,15 +3592,15 @@
         <v>117545</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -2946,15 +3609,15 @@
         <v>212331</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -2963,15 +3626,15 @@
         <v>-2613</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -2980,15 +3643,15 @@
         <v>-89262</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -2997,15 +3660,15 @@
         <v>238001</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -3014,15 +3677,15 @@
         <v>195193</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -3031,15 +3694,15 @@
         <v>-114827</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -3048,15 +3711,15 @@
         <v>-82661</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -3065,7 +3728,7 @@
         <v>235706</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3100,10 +3763,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3112,15 +3775,15 @@
         <v>13418476</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3129,15 +3792,15 @@
         <v>-5642496</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3146,15 +3809,15 @@
         <v>7775980</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3163,15 +3826,15 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3180,15 +3843,15 @@
         <v>-632760</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3197,15 +3860,15 @@
         <v>564265</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -3214,15 +3877,15 @@
         <v>1213340</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -3231,15 +3894,15 @@
         <v>-774366</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -3248,15 +3911,15 @@
         <v>438974</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -3265,15 +3928,15 @@
         <v>1032233</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -3282,15 +3945,15 @@
         <v>1277907</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -3299,15 +3962,15 @@
         <v>11089359</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -3316,15 +3979,15 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -3333,15 +3996,15 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -3350,15 +4013,15 @@
         <v>503375</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -3367,15 +4030,15 @@
         <v>60159</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -3384,15 +4047,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -3401,15 +4064,15 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -3418,15 +4081,15 @@
         <v>-7805</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -3435,15 +4098,15 @@
         <v>-85388</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -3452,15 +4115,15 @@
         <v>470341</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -3469,15 +4132,15 @@
         <v>53437</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -3486,15 +4149,15 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -3503,15 +4166,15 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -3520,15 +4183,15 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -3537,15 +4200,15 @@
         <v>-84804</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -3554,15 +4217,15 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -3571,15 +4234,15 @@
         <v>438974</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -3588,15 +4251,15 @@
         <v>12923840</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -3605,15 +4268,15 @@
         <v>-5134699</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -3622,15 +4285,15 @@
         <v>7789141</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -3639,15 +4302,15 @@
         <v>1197025</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -3656,15 +4319,15 @@
         <v>-608970</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -3673,15 +4336,15 @@
         <v>588055</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -3690,15 +4353,15 @@
         <v>1159903</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>2022</v>
@@ -3707,15 +4370,15 @@
         <v>-689562</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>2022</v>
@@ -3724,15 +4387,15 @@
         <v>470341</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>2022</v>
@@ -3741,15 +4404,15 @@
         <v>775179</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>2022</v>
@@ -3758,15 +4421,15 @@
         <v>1277906</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <v>2022</v>
@@ -3775,15 +4438,15 @@
         <v>10900622</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <v>2022</v>
@@ -3792,15 +4455,15 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <v>2022</v>
@@ -3809,15 +4472,15 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <v>2022</v>
@@ -3826,15 +4489,15 @@
         <v>10025990</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>2022</v>
@@ -3843,15 +4506,15 @@
         <v>724087</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>2022</v>
@@ -3860,15 +4523,15 @@
         <v>-1223</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>2022</v>
@@ -3877,15 +4540,15 @@
         <v>796530</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>2022</v>
@@ -3894,15 +4557,15 @@
         <v>-17828</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C49">
         <v>2022</v>
@@ -3911,15 +4574,15 @@
         <v>-626934</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>2022</v>
@@ -3928,15 +4591,15 @@
         <v>10900622</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C51">
         <v>2022</v>
@@ -3945,15 +4608,15 @@
         <v>745003</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C52">
         <v>2022</v>
@@ -3962,15 +4625,15 @@
         <v>-18007</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C53">
         <v>2022</v>
@@ -3979,15 +4642,15 @@
         <v>32778</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C54">
         <v>2022</v>
@@ -3996,15 +4659,15 @@
         <v>-1913</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C55">
         <v>2022</v>
@@ -4013,15 +4676,15 @@
         <v>-663962</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C56">
         <v>2022</v>
@@ -4030,15 +4693,15 @@
         <v>94838</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C57">
         <v>2022</v>
@@ -4047,7 +4710,7 @@
         <v>11089359</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4057,36 +4720,286 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>16630</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>-24879</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>22295</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>2248000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>2248000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>3752000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>3752000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>16373</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>16377</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>14179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>14183</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/LOGS/9dc3e434-32dc-4aee-9ff6-bf06b0d787bb/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/9dc3e434-32dc-4aee-9ff6-bf06b0d787bb/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="138">
   <si>
     <t>rows</t>
   </si>
@@ -306,6 +306,33 @@
     <t>21</t>
   </si>
   <si>
+    <t>None Deferred tax liabilities, net</t>
+  </si>
+  <si>
+    <t>The balance comprises temporary differences attributable to: Rehabilitation provision</t>
+  </si>
+  <si>
+    <t>The balance comprises temporary differences attributable to: Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>The balance comprises temporary differences attributable to: Tax losses</t>
+  </si>
+  <si>
+    <t>The balance comprises temporary differences attributable to: Provisions and accruals</t>
+  </si>
+  <si>
+    <t>The balance comprises temporary differences attributable to: Lease liabilities</t>
+  </si>
+  <si>
+    <t>The balance comprises temporary differences attributable to: Total</t>
+  </si>
+  <si>
+    <t>660,963 (1,540,485) 660,963 (1,540,485)</t>
+  </si>
+  <si>
+    <t>600,486 (1,492,028) 600,486 (1,492,028)</t>
+  </si>
+  <si>
     <t>The balance comprises temporary to: Property, plant &amp; equipment nan nan nan</t>
   </si>
   <si>
@@ -375,6 +402,30 @@
     <t>5</t>
   </si>
   <si>
+    <t>ADMINISTRATION EXPENSES Management fees</t>
+  </si>
+  <si>
+    <t>ADMINISTRATION EXPENSES Head office administration expenses</t>
+  </si>
+  <si>
+    <t>ADMINISTRATION EXPENSES Service fee expense</t>
+  </si>
+  <si>
+    <t>ADMINISTRATION EXPENSES Employee related costs</t>
+  </si>
+  <si>
+    <t>ADMINISTRATION EXPENSES service fees</t>
+  </si>
+  <si>
+    <t>ADMINISTRATION EXPENSES Audit fees</t>
+  </si>
+  <si>
+    <t>ADMINISTRATION EXPENSES Total</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>OTHER EXPENSES Net foreign exchange loss</t>
   </si>
   <si>
@@ -394,6 +445,18 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>FINANCE COSTS Unwinding of discounts on provisions (note 24)</t>
+  </si>
+  <si>
+    <t>FINANCE COSTS Interest - Lease liabilities (note 19)</t>
+  </si>
+  <si>
+    <t>FINANCE COSTS Total</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -2021,12 +2084,268 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>-879522</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>576007</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>24951</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>5217</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>54719</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>660963</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>-891542</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>547598</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>42076</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>4103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>6693</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>600486</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2058,7 +2377,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -2075,7 +2394,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -2092,7 +2411,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -2109,7 +2428,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -2126,7 +2445,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
@@ -2143,7 +2462,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
@@ -2160,7 +2479,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
@@ -2177,7 +2496,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
@@ -2194,7 +2513,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -2211,7 +2530,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
@@ -2228,7 +2547,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -2245,7 +2564,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
@@ -2262,7 +2581,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
@@ -2279,7 +2598,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -2296,7 +2615,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
@@ -2313,7 +2632,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
@@ -2330,7 +2649,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
@@ -2347,7 +2666,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
@@ -2364,7 +2683,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -2381,7 +2700,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
@@ -2398,7 +2717,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
@@ -2415,7 +2734,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -2432,7 +2751,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -2449,7 +2768,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
@@ -2466,7 +2785,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>48</v>
@@ -2483,7 +2802,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
         <v>48</v>
@@ -2578,7 +2897,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2587,12 +2906,12 @@
         <v>13300269</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2601,12 +2920,12 @@
         <v>61727</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2615,12 +2934,12 @@
         <v>27598</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2629,12 +2948,12 @@
         <v>13389594</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2643,12 +2962,12 @@
         <v>10353407</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2657,12 +2976,12 @@
         <v>55900</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2671,12 +2990,12 @@
         <v>48909</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2685,7 +3004,7 @@
         <v>10458216</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2768,7 +3087,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2777,12 +3096,12 @@
         <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2791,12 +3110,12 @@
         <v>64957</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2805,12 +3124,12 @@
         <v>14699</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2819,12 +3138,12 @@
         <v>79752</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2833,12 +3152,12 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2847,12 +3166,12 @@
         <v>4890</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2861,12 +3180,12 @@
         <v>992</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2875,7 +3194,7 @@
         <v>5930</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2885,12 +3204,226 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>254397</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>17864</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>14431</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>21031</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>12611</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>1697</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>322031</v>
+      </c>
+      <c r="E8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>270782</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>13253</v>
+      </c>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>16610</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>12493</v>
+      </c>
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>6196</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>1611</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>320945</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2922,7 +3455,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2931,12 +3464,12 @@
         <v>-264231</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2945,12 +3478,12 @@
         <v>-13772</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2959,12 +3492,12 @@
         <v>-1913</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2973,12 +3506,12 @@
         <v>-10535</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2987,12 +3520,12 @@
         <v>-8129</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3001,12 +3534,12 @@
         <v>-298580</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3015,12 +3548,12 @@
         <v>-132483</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3029,12 +3562,12 @@
         <v>1118</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -3043,12 +3576,12 @@
         <v>-17828</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -3057,12 +3590,12 @@
         <v>-9702</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -3071,12 +3604,12 @@
         <v>1371</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -3085,7 +3618,7 @@
         <v>-157524</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3237,12 +3770,114 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>90045</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>4935</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>94980</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>54581</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>2168</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>56749</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
